--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7914.071283196989</v>
+        <v>1574900.1853562</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7914.071283196989</v>
+        <v>1574900.1853562</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22649.00525470507</v>
+        <v>1368294.454869905</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22649.00525470507</v>
+        <v>1368294.454869905</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188681991.070327</v>
+        <v>47430329.00808057</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10756.48131117575</v>
+        <v>1071191.933907656</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20957.8856999641</v>
+        <v>2047209.140165417</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31159.29008875243</v>
+        <v>3023226.346423178</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42442.92480897196</v>
+        <v>3940603.099778659</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53726.55952919147</v>
+        <v>4857979.853134139</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64248.82485696152</v>
+        <v>5812115.157744025</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74980.3172336336</v>
+        <v>6773002.275769828</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85677.88089967292</v>
+        <v>7727137.580379711</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96927.5869092597</v>
+        <v>8637762.520319266</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108115.7495348299</v>
+        <v>9559140.217374744</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118431.770573662</v>
+        <v>10535157.4236325</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128747.791612494</v>
+        <v>11511174.62989027</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139063.8126513261</v>
+        <v>12487191.83614804</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150347.4473715456</v>
+        <v>13404568.58950353</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161571.9431349041</v>
+        <v>14304541.10379223</v>
       </c>
     </row>
   </sheetData>
